--- a/Stock Selection/CASH OPERATION.xlsx
+++ b/Stock Selection/CASH OPERATION.xlsx
@@ -4134,203 +4134,203 @@
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="n">
-        <v>746042387</v>
+        <v>743536649</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45727.8721437963</v>
+        <v>45726.37542525463</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0873 @ 171.67</t>
+          <t>Profit of position #1393281432</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>-14.99</v>
+        <v>0.21</v>
       </c>
       <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="n">
-        <v>765269866</v>
+        <v>743536650</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45749.49861327546</v>
+        <v>45726.3754252662</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>KMB.US USD 1.2600/ SHR</t>
+          <t>CLOSE BUY 1/1.6706 @ 6.1860</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.13</v>
+        <v>5.98</v>
       </c>
       <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="n">
-        <v>765269867</v>
+        <v>746042387</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45749.49861327546</v>
+        <v>45727.8721437963</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>KMB.US USD WHT 30%</t>
+          <t>OPEN BUY 0.0873 @ 171.67</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>-0.04</v>
+        <v>-14.99</v>
       </c>
       <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="n">
-        <v>765270069</v>
+        <v>743538255</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45749.49861350694</v>
+        <v>45726.37549795139</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>KMB.US USD 1.2600/ SHR</t>
+          <t>Profit of position #1393281260</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="n">
-        <v>765270070</v>
+        <v>743538256</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45749.49861350694</v>
+        <v>45726.37549795139</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>KMB.US USD WHT 30%</t>
+          <t>CLOSE BUY 1.4632/2.9908 @ 6.0200</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>-0.03</v>
+        <v>8.51</v>
       </c>
       <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="n">
-        <v>765270081</v>
+        <v>743538257</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45749.49861351852</v>
+        <v>45726.37549796296</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>KMB.US USD 1.2600/ SHR</t>
+          <t>Profit of position #1393287040</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="n">
-        <v>765270082</v>
+        <v>743538259</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45749.49861351852</v>
+        <v>45726.37549796296</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>KMB.US USD WHT 30%</t>
+          <t>CLOSE BUY 0.2503/2.9908 @ 6.0200</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>-0.05</v>
+        <v>1.45</v>
       </c>
       <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="n">
-        <v>765270529</v>
+        <v>765269866</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45749.49861403935</v>
+        <v>45749.49861327546</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4351,182 +4351,182 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="n">
-        <v>765270530</v>
+        <v>743538262</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45749.49861403935</v>
+        <v>45726.37549798611</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>KMB.US USD WHT 30%</t>
+          <t>Profit of position #1403180431</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="n">
-        <v>765270735</v>
+        <v>743538263</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45749.49861428241</v>
+        <v>45726.37549798611</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>KMB.US USD 1.2600/ SHR</t>
+          <t>CLOSE BUY 0.2773/2.9908 @ 6.0200</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.14</v>
+        <v>1.62</v>
       </c>
       <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="n">
-        <v>765270736</v>
+        <v>743538266</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45749.49861428241</v>
+        <v>45726.37549799769</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>KMB.US USD WHT 30%</t>
+          <t>Profit of position #1403180445</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="n">
-        <v>705653199</v>
+        <v>765269867</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45681.49514771991</v>
+        <v>45749.49861327546</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ING.US USD 0.1651/ SHR</t>
+          <t>KMB.US USD WHT 30%</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.16</v>
+        <v>-0.04</v>
       </c>
       <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
-        <v>705653200</v>
+        <v>765270069</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45681.49514773148</v>
+        <v>45749.49861350694</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ING.US USD WHT 15%</t>
+          <t>KMB.US USD 1.2600/ SHR</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-0.02</v>
+        <v>0.1</v>
       </c>
       <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="n">
-        <v>705653234</v>
+        <v>743538267</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45681.49514777778</v>
+        <v>45726.37549799769</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ING.US USD 0.1651/ SHR</t>
+          <t>CLOSE BUY 0.0092/2.9908 @ 6.0200</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="n">
-        <v>705653235</v>
+        <v>765270070</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4534,16 +4534,16 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45681.49514777778</v>
+        <v>45749.49861350694</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ING.US USD WHT 15%</t>
+          <t>KMB.US USD WHT 30%</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -4554,7 +4554,7 @@
     <row r="148">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="n">
-        <v>766566950</v>
+        <v>765270081</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4562,27 +4562,27 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45750.46191336805</v>
+        <v>45749.49861351852</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>BND.US USD 0.2404/ SHR</t>
+          <t>KMB.US USD 1.2600/ SHR</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>BND</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="n">
-        <v>766566951</v>
+        <v>765270082</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4590,203 +4590,207 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45750.46191336805</v>
+        <v>45749.49861351852</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>BND.US USD WHT 30%</t>
+          <t>KMB.US USD WHT 30%</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>BND</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="n">
-        <v>769436100</v>
+        <v>765270529</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45751.7231671412</v>
+        <v>45749.49861403935</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.643 @ 15.55</t>
+          <t>KMB.US USD 1.2600/ SHR</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-10</v>
+        <v>0.1</v>
       </c>
       <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
-        <v>769465419</v>
+        <v>743548157</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>deposit</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45751.73298748842</v>
+        <v>45726.37603739584</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>SafetyPay deposit, SafetyPay provider transaction id=0125094541214514, SafetyPay merchant reference id=261181, id=18734513</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
+          <t>Profit of position #1393735509</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>VHYD.L</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>200</v>
+        <v>0.13</v>
       </c>
       <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
-        <v>769492457</v>
+        <v>765270530</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45751.74500873843</v>
+        <v>45749.49861403935</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0616 @ 324.48</t>
+          <t>KMB.US USD WHT 30%</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>-19.99</v>
+        <v>-0.03</v>
       </c>
       <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="n">
-        <v>769493151</v>
+        <v>765270735</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45751.74534790509</v>
+        <v>45749.49861428241</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>OPEN BUY 1 @ 74.13</t>
+          <t>KMB.US USD 1.2600/ SHR</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>BND</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>-74.13</v>
+        <v>0.14</v>
       </c>
       <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="n">
-        <v>769480903</v>
+        <v>743548158</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45751.73925943287</v>
+        <v>45726.37603739584</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.2701 @ 148.09</t>
+          <t>CLOSE BUY 0.0366/0.2569 @ 71.160</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-40</v>
+        <v>2.47</v>
       </c>
       <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="n">
-        <v>769487423</v>
+        <v>765270736</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45751.74231565972</v>
+        <v>45749.49861428241</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>OPEN BUY 1/1.4245 @ 17.54</t>
+          <t>KMB.US USD WHT 30%</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>-17.54</v>
+        <v>-0.04</v>
       </c>
       <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="n">
-        <v>769487406</v>
+        <v>705653199</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45751.74230174768</v>
+        <v>45681.49514771991</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.4245/1.4245 @ 17.54</t>
+          <t>ING.US USD 0.1651/ SHR</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -4795,126 +4799,126 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>-7.45</v>
+        <v>0.16</v>
       </c>
       <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="n">
-        <v>705921636</v>
+        <v>705653200</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sec Fee</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45681.69152818287</v>
+        <v>45681.49514773148</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sec Fee adj QCOM.US 20250123</t>
+          <t>ING.US USD WHT 15%</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="n">
-        <v>772553486</v>
+        <v>705653234</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45754.57940659722</v>
+        <v>45681.49514777778</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>OPEN BUY 1 @ 37.2580</t>
+          <t>ING.US USD 0.1651/ SHR</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>VBTC.DE</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>-41.06</v>
+        <v>0.17</v>
       </c>
       <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="n">
-        <v>772744353</v>
+        <v>705653235</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45754.647631875</v>
+        <v>45681.49514777778</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Profit of position #1631473921</t>
+          <t>ING.US USD WHT 15%</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.31</v>
+        <v>-0.03</v>
       </c>
       <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="n">
-        <v>772744354</v>
+        <v>766566950</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45754.647631875</v>
+        <v>45750.46191336805</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.2745/0.7 @ 44.80</t>
+          <t>BND.US USD 0.2404/ SHR</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>BND</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>10.99</v>
+        <v>0.24</v>
       </c>
       <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="n">
-        <v>772744355</v>
+        <v>743548159</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4922,27 +4926,27 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45754.64763188658</v>
+        <v>45726.37603741898</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Profit of position #1642763333</t>
+          <t>Profit of position #1395218355</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.02</v>
+        <v>0.3</v>
       </c>
       <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="n">
-        <v>772744356</v>
+        <v>743548160</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4950,83 +4954,83 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45754.64763188658</v>
+        <v>45726.37603741898</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.2459/0.7 @ 44.80</t>
+          <t>CLOSE BUY 0.074/0.2569 @ 71.160</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>10</v>
+        <v>4.97</v>
       </c>
       <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="n">
-        <v>772744358</v>
+        <v>766566951</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45754.64763189815</v>
+        <v>45750.46191336805</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Profit of position #1666451221</t>
+          <t>BND.US USD WHT 30%</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>BND</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.33</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="n">
-        <v>772744359</v>
+        <v>769436100</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45754.64763190972</v>
+        <v>45751.7231671412</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.1796/0.7 @ 44.80</t>
+          <t>OPEN BUY 0.643 @ 15.55</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>7.72</v>
+        <v>-10</v>
       </c>
       <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="n">
-        <v>772791584</v>
+        <v>743548161</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -5034,139 +5038,135 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45754.65218738426</v>
+        <v>45726.37603743056</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Profit of position #1749053104</t>
+          <t>Profit of position #1403166009</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>6.3</v>
+        <v>0.12</v>
       </c>
       <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="n">
-        <v>775029431</v>
+        <v>743548162</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Sec Fee</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45755.86807545139</v>
+        <v>45726.37603743056</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sec Fee adj EXC.US 20250407</t>
+          <t>CLOSE BUY 0.0362/0.2569 @ 71.160</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="n">
-        <v>775056419</v>
+        <v>743548163</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45755.88025325231</v>
+        <v>45726.37603744213</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.3673 @ 27.17</t>
+          <t>Profit of position #1403177543</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>YPF</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>-9.98</v>
+        <v>0.12</v>
       </c>
       <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="n">
-        <v>775057235</v>
+        <v>743548164</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45755.88055113426</v>
+        <v>45726.37603744213</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.7137 @ 14.00</t>
+          <t>CLOSE BUY 0.0368/0.2569 @ 71.160</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>-9.99</v>
+        <v>2.5</v>
       </c>
       <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="n">
-        <v>776315372</v>
+        <v>769465419</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>deposit</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45756.64937418982</v>
+        <v>45751.73298748842</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Profit of position #1756767326</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>SPY</t>
-        </is>
-      </c>
+          <t>SafetyPay deposit, SafetyPay provider transaction id=0125094541214514, SafetyPay merchant reference id=261181, id=18734513</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
-        <v>-0.25</v>
+        <v>200</v>
       </c>
       <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="n">
-        <v>776325461</v>
+        <v>743548165</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5174,375 +5174,371 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45756.65185325231</v>
+        <v>45726.3760374537</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Profit of position #1756797155</t>
+          <t>Profit of position #1403180429</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>-10.6</v>
+        <v>0.23</v>
       </c>
       <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="n">
-        <v>777443872</v>
+        <v>743548166</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45757.33058888889</v>
+        <v>45726.3760374537</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>TSM.US USD 0.6838/ SHR</t>
+          <t>CLOSE BUY 0.0733/0.2569 @ 71.160</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.06</v>
+        <v>4.99</v>
       </c>
       <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="n">
-        <v>777443873</v>
+        <v>769492457</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45757.33058888889</v>
+        <v>45751.74500873843</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>TSM.US USD WHT 21%</t>
+          <t>OPEN BUY 0.0616 @ 324.48</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>V</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>-0.01</v>
+        <v>-19.99</v>
       </c>
       <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="n">
-        <v>777469070</v>
+        <v>743719828</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45757.33059533565</v>
+        <v>45726.43231471065</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>TSM.US USD 0.6838/ SHR</t>
+          <t>Profit of position #1403180445</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="n">
-        <v>777469071</v>
+        <v>743719829</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45757.33059534722</v>
+        <v>45726.43231471065</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>TSM.US USD WHT 21%</t>
+          <t>CLOSE BUY 0.9908/2.9908 @ 6.0270</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>-0.01</v>
+        <v>5.79</v>
       </c>
       <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="n">
-        <v>777484070</v>
+        <v>745059929</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45757.33061372685</v>
+        <v>45727.38638332176</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>TSM.US USD 0.6838/ SHR</t>
+          <t>CLOSE BUY 0.1102/0.6706 @ 6.1760</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.13</v>
+        <v>0.66</v>
       </c>
       <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="n">
-        <v>777484071</v>
+        <v>745059930</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45757.33061373843</v>
+        <v>45727.38638333333</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TSM.US USD WHT 21%</t>
+          <t>Profit of position #1393301698</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="H176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="n">
-        <v>777471608</v>
+        <v>745059931</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45757.33059850695</v>
+        <v>45727.38638333333</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TSM.US USD 0.6838/ SHR</t>
+          <t>CLOSE BUY 0.1401/0.6706 @ 6.1760</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.05</v>
+        <v>0.84</v>
       </c>
       <c r="H177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="n">
-        <v>777471609</v>
+        <v>745059932</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45757.33059850695</v>
+        <v>45727.38638335648</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TSM.US USD WHT 21%</t>
+          <t>Profit of position #1403180427</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>-0.01</v>
+        <v>0.08</v>
       </c>
       <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="n">
-        <v>777512370</v>
+        <v>769493151</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45757.33064686343</v>
+        <v>45751.74534790509</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TSM.US USD 0.6838/ SHR</t>
+          <t>OPEN BUY 1 @ 74.13</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>BND</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.05</v>
+        <v>-74.13</v>
       </c>
       <c r="H179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="n">
-        <v>777512371</v>
+        <v>745059933</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45757.33064686343</v>
+        <v>45727.38638335648</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TSM.US USD WHT 21%</t>
+          <t>CLOSE BUY 0.4203/0.6706 @ 6.1760</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>-0.01</v>
+        <v>2.52</v>
       </c>
       <c r="H180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="n">
-        <v>777513339</v>
+        <v>745059994</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Subaccount Transfer</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45757.33064795139</v>
+        <v>45727.3864047338</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TSM.US USD 0.6838/ SHR</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>TSM</t>
-        </is>
-      </c>
+          <t>Transfer from 50872299 to 50704832</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>0.07000000000000001</v>
+        <v>-52.08</v>
       </c>
       <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="n">
-        <v>777513340</v>
+        <v>745059928</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45757.33064795139</v>
+        <v>45727.38638332176</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TSM.US USD WHT 21%</t>
+          <t>Profit of position #1393281432</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="n">
-        <v>777514620</v>
+        <v>769480903</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45757.33064947917</v>
+        <v>45751.73925943287</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TSM.US USD 0.6838/ SHR</t>
+          <t>OPEN BUY 0.2701 @ 148.09</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5551,238 +5547,234 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.06</v>
+        <v>-40</v>
       </c>
       <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="n">
-        <v>777514621</v>
+        <v>584485943</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Subaccount Transfer</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45757.33064949074</v>
+        <v>45495.92558700231</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TSM.US USD WHT 21%</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>TSM</t>
-        </is>
-      </c>
+          <t>Transfer from 50704832 to 50872299</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>-0.01</v>
+        <v>50</v>
       </c>
       <c r="H184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="n">
-        <v>781556656</v>
+        <v>584584545</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45761.66966109954</v>
+        <v>45496.3756843287</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Profit of position #1767688540</t>
+          <t>OPEN BUY 4/4.1401 @ 5.9810</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>-3.77</v>
+        <v>-23.92</v>
       </c>
       <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="n">
-        <v>781762912</v>
+        <v>769487423</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45761.77371296296</v>
+        <v>45751.74231565972</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Profit of position #1768229183</t>
+          <t>OPEN BUY 1/1.4245 @ 17.54</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.69</v>
+        <v>-17.54</v>
       </c>
       <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
       <c r="B187" t="n">
-        <v>782960927</v>
+        <v>584584380</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45762.61225932871</v>
+        <v>45496.37565851852</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Profit of position #1769815245</t>
+          <t>OPEN BUY 4/4.2503 @ 5.8120</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>-4.06</v>
+        <v>-23.25</v>
       </c>
       <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
       <c r="B188" t="n">
-        <v>785659568</v>
+        <v>584587915</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45764.85028835648</v>
+        <v>45496.37755148148</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Profit of position #1666451221</t>
+          <t>OPEN BUY 0.2503/4.2503 @ 5.8110</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.25</v>
+        <v>-1.45</v>
       </c>
       <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="n">
-        <v>785659569</v>
+        <v>769487406</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45764.85028835648</v>
+        <v>45751.74230174768</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.0528 @ 47.89</t>
+          <t>OPEN BUY 0.4245/1.4245 @ 17.54</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.28</v>
+        <v>-7.45</v>
       </c>
       <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
       <c r="B190" t="n">
-        <v>785661086</v>
+        <v>584598125</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45764.85178138889</v>
+        <v>45496.37886087963</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Profit of position #1450043624</t>
+          <t>OPEN BUY 0.1401/4.1401 @ 5.9900</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>-0.42</v>
+        <v>-0.84</v>
       </c>
       <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="n">
-        <v>785661087</v>
+        <v>705921636</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Sec Fee</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45764.85178138889</v>
+        <v>45681.69152818287</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.1 @ 143.22</t>
+          <t>Sec Fee adj QCOM.US 20250123</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>14.74</v>
+        <v>0</v>
       </c>
       <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
       <c r="B192" t="n">
-        <v>785663603</v>
+        <v>584801661</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5790,72 +5782,72 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45764.85451521991</v>
+        <v>45496.61777700231</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.6724 @ 14.87</t>
+          <t>OPEN BUY 0.0366 @ 67.370</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-10</v>
+        <v>-2.47</v>
       </c>
       <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="n">
-        <v>785899545</v>
+        <v>772553486</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Sec Fee</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45765.74111733797</v>
+        <v>45754.57940659722</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sec Fee adj EXC.US 20250417</t>
+          <t>OPEN BUY 1 @ 37.2580</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>VBTC.DE</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>-41.06</v>
       </c>
       <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="n">
-        <v>785900668</v>
+        <v>584801647</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Sec Fee</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45765.74277261574</v>
+        <v>45496.61775549768</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sec Fee adj KMB.US 20250417</t>
+          <t>Profit of position #1393281260</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -5866,311 +5858,315 @@
     <row r="195">
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="n">
-        <v>786345621</v>
+        <v>584801648</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45768.13306667824</v>
+        <v>45496.61775549768</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Profit of position #1777308201</t>
+          <t>CLOSE BUY 0.5612 @ 5.8100</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.51</v>
+        <v>3.26</v>
       </c>
       <c r="H195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
       <c r="B196" t="n">
-        <v>787709607</v>
+        <v>584801643</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45769.49791707176</v>
+        <v>45496.61775508102</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>INGR.US USD 0.8000/ SHR</t>
+          <t>Profit of position #1393281432</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>INGR</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.15</v>
+        <v>-0.01</v>
       </c>
       <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="n">
-        <v>787709608</v>
+        <v>584801644</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45769.49791707176</v>
+        <v>45496.61775508102</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>INGR.US USD WHT 30%</t>
+          <t>CLOSE BUY 0.632 @ 5.9670</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>INGR</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>-0.05</v>
+        <v>3.78</v>
       </c>
       <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
       <c r="B198" t="n">
-        <v>787709619</v>
+        <v>585465634</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45769.49791709491</v>
+        <v>45497.6542358912</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>INGR.US USD 0.8000/ SHR</t>
+          <t>OPEN BUY 0.074 @ 67.130</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>INGR</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.13</v>
+        <v>-4.97</v>
       </c>
       <c r="H198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
       <c r="B199" t="n">
-        <v>787709620</v>
+        <v>585465630</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45769.49791709491</v>
+        <v>45497.65423548611</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>INGR.US USD WHT 30%</t>
+          <t>Profit of position #1393281260</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>INGR</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="H199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
       <c r="B200" t="n">
-        <v>788242299</v>
+        <v>585465631</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45769.76084208333</v>
+        <v>45497.65423548611</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Profit of position #1781449563</t>
+          <t>CLOSE BUY 0.555/1.555 @ 5.8010</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>-2.79</v>
+        <v>3.23</v>
       </c>
       <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
       <c r="B201" t="n">
-        <v>556516261</v>
+        <v>585465632</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>deposit</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45443.6253102199</v>
+        <v>45497.65423565972</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECOMMPAY card deposit, ECOMMPAY provider transaction id=1717160381025_178431418,ECOMMPAY merchant reference id=1717160381025_178431418, id=11821773</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr"/>
+          <t>Profit of position #1393281432</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>FLOA.L</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>100</v>
+        <v>-0.01</v>
       </c>
       <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
       <c r="B202" t="n">
-        <v>557153112</v>
+        <v>585465633</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45446.37534842593</v>
+        <v>45497.65423565972</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.4139 @ 33.545</t>
+          <t>CLOSE BUY 0.4344/1.4344 @ 5.9680</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>SHELL.AS</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>-15.15</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
       <c r="B203" t="n">
-        <v>557470756</v>
+        <v>772744353</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45446.64587177083</v>
+        <v>45754.647631875</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.1322 @ 155.59</t>
+          <t>Profit of position #1631473921</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>-20.57</v>
+        <v>1.31</v>
       </c>
       <c r="H203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
       <c r="B204" t="n">
-        <v>557778020</v>
+        <v>585515127</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45446.89366100694</v>
+        <v>45497.67739417824</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0975 @ 205.08</t>
+          <t>Profit of position #1393281432</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="n">
-        <v>557784122</v>
+        <v>772744354</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45446.90411453704</v>
+        <v>45754.647631875</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>OPEN BUY 1 @ 13.37</t>
+          <t>CLOSE BUY 0.2745/0.7 @ 44.80</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>SMFG</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>-13.37</v>
+        <v>10.99</v>
       </c>
       <c r="H205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
       <c r="B206" t="n">
-        <v>743536649</v>
+        <v>772744355</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -6178,27 +6174,27 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45726.37542525463</v>
+        <v>45754.64763188658</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Profit of position #1393281432</t>
+          <t>Profit of position #1642763333</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.21</v>
+        <v>1.02</v>
       </c>
       <c r="H206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
       <c r="B207" t="n">
-        <v>743536650</v>
+        <v>772744356</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -6206,55 +6202,55 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45726.3754252662</v>
+        <v>45754.64763188658</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CLOSE BUY 1/1.6706 @ 6.1860</t>
+          <t>CLOSE BUY 0.2459/0.7 @ 44.80</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.98</v>
+        <v>10</v>
       </c>
       <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
       <c r="B208" t="n">
-        <v>559538038</v>
+        <v>585515128</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45448.6458737037</v>
+        <v>45497.67739417824</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0171 @ 1184.19</t>
+          <t>CLOSE BUY 1/1.4344 @ 5.9780</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>-20.25</v>
+        <v>5.98</v>
       </c>
       <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
       <c r="B209" t="n">
-        <v>743538255</v>
+        <v>585515124</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -6262,7 +6258,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45726.37549795139</v>
+        <v>45497.67739378472</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6275,14 +6271,14 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
       <c r="B210" t="n">
-        <v>743538256</v>
+        <v>585515125</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -6290,11 +6286,11 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45726.37549795139</v>
+        <v>45497.67739378472</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>CLOSE BUY 1.4632/2.9908 @ 6.0200</t>
+          <t>CLOSE BUY 1/1.555 @ 5.8140</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -6303,14 +6299,14 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>8.51</v>
+        <v>5.81</v>
       </c>
       <c r="H210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="n">
-        <v>743538257</v>
+        <v>772744358</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6318,27 +6314,27 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45726.37549796296</v>
+        <v>45754.64763189815</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Profit of position #1393287040</t>
+          <t>Profit of position #1666451221</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="H211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="n">
-        <v>743538259</v>
+        <v>772744359</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -6346,27 +6342,27 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45726.37549796296</v>
+        <v>45754.64763190972</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.2503/2.9908 @ 6.0200</t>
+          <t>CLOSE BUY 0.1796/0.7 @ 44.80</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.45</v>
+        <v>7.72</v>
       </c>
       <c r="H212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
       <c r="B213" t="n">
-        <v>743538262</v>
+        <v>589161439</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -6374,11 +6370,11 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45726.37549798611</v>
+        <v>45504.63556375</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Profit of position #1403180431</t>
+          <t>Profit of position #1393281260</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -6387,14 +6383,14 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
       <c r="B214" t="n">
-        <v>743538263</v>
+        <v>589161440</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -6402,11 +6398,11 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45726.37549798611</v>
+        <v>45504.63556375</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.2773/2.9908 @ 6.0200</t>
+          <t>CLOSE BUY 0.4206 @ 5.8260</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -6415,14 +6411,14 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.62</v>
+        <v>2.44</v>
       </c>
       <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="n">
-        <v>743538266</v>
+        <v>772791584</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6430,55 +6426,55 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45726.37549799769</v>
+        <v>45754.65218738426</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Profit of position #1403180445</t>
+          <t>Profit of position #1749053104</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.01</v>
+        <v>6.3</v>
       </c>
       <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
       <c r="B216" t="n">
-        <v>560399287</v>
+        <v>589161441</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45449.86760890047</v>
+        <v>45504.63556420139</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.1488 @ 67.20</t>
+          <t>Profit of position #1393281432</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
       <c r="B217" t="n">
-        <v>743538267</v>
+        <v>589161442</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -6486,39 +6482,39 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45726.37549799769</v>
+        <v>45504.63556420139</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.0092/2.9908 @ 6.0200</t>
+          <t>CLOSE BUY 0.4033 @ 5.9800</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.05</v>
+        <v>2.41</v>
       </c>
       <c r="H217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="n">
-        <v>743548157</v>
+        <v>589161443</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45726.37603739584</v>
+        <v>45504.63556431713</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Profit of position #1393735509</t>
+          <t>OPEN BUY 0.0362 @ 68.050</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -6527,54 +6523,54 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.13</v>
+        <v>-2.46</v>
       </c>
       <c r="H218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
       <c r="B219" t="n">
-        <v>743548158</v>
+        <v>775029431</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Sec Fee</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45726.37603739584</v>
+        <v>45755.86807545139</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.0366/0.2569 @ 71.160</t>
+          <t>Sec Fee adj EXC.US 20250407</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="H219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
       <c r="B220" t="n">
-        <v>743548159</v>
+        <v>589165770</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45726.37603741898</v>
+        <v>45504.64158165509</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Profit of position #1395218355</t>
+          <t>OPEN BUY 0.0368 @ 68.045</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -6583,70 +6579,70 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.3</v>
+        <v>-2.5</v>
       </c>
       <c r="H220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="n">
-        <v>561654650</v>
+        <v>589166859</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45453.66360056713</v>
+        <v>45504.64299375</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Profit of position #1342063955</t>
+          <t>OPEN BUY 0.0733 @ 68.010</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>SHELL.AS</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>-0.73</v>
+        <v>-4.99</v>
       </c>
       <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
       <c r="B222" t="n">
-        <v>743548160</v>
+        <v>775056419</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45726.37603741898</v>
+        <v>45755.88025325231</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.074/0.2569 @ 71.160</t>
+          <t>OPEN BUY 0.3673 @ 27.17</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.97</v>
+        <v>-9.98</v>
       </c>
       <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
       <c r="B223" t="n">
-        <v>743548161</v>
+        <v>589165768</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6654,27 +6650,27 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45726.37603743056</v>
+        <v>45504.64158157408</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Profit of position #1403166009</t>
+          <t>Profit of position #1393281432</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
       <c r="B224" t="n">
-        <v>743548162</v>
+        <v>589165769</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6682,151 +6678,151 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45726.37603743056</v>
+        <v>45504.64158157408</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.0362/0.2569 @ 71.160</t>
+          <t>CLOSE BUY 0.4201 @ 5.9800</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="H224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="n">
-        <v>561654651</v>
+        <v>589166872</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45453.66360056713</v>
+        <v>45504.64301291667</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.4139 @ 32.605</t>
+          <t>OPEN BUY 1/1.2773 @ 5.8360</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>SHELL.AS</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>15.15</v>
+        <v>-5.84</v>
       </c>
       <c r="H225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="n">
-        <v>561850164</v>
+        <v>589166858</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45453.90972417824</v>
+        <v>45504.64299368056</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Profit of position #1350877137</t>
+          <t>OPEN BUY 0.4203 @ 5.9890</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>US30</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>-1.55</v>
+        <v>-2.52</v>
       </c>
       <c r="H226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="n">
-        <v>743548163</v>
+        <v>589166860</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45726.37603744213</v>
+        <v>45504.64299381944</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Profit of position #1403177543</t>
+          <t>OPEN BUY 0.2773/1.2773 @ 5.8400</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.12</v>
+        <v>-1.62</v>
       </c>
       <c r="H227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="n">
-        <v>743548164</v>
+        <v>775057235</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45726.37603744213</v>
+        <v>45755.88055113426</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.0368/0.2569 @ 71.160</t>
+          <t>OPEN BUY 0.7137 @ 14.00</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.5</v>
+        <v>-9.99</v>
       </c>
       <c r="H228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="n">
-        <v>743548165</v>
+        <v>622623348</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45726.3760374537</v>
+        <v>45560.50025998842</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Profit of position #1403180429</t>
+          <t>VHYD.UK USD 0.4947/ SHR</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -6835,26 +6831,26 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="H229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="n">
-        <v>743548166</v>
+        <v>622623355</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45726.3760374537</v>
+        <v>45560.50026001158</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.0733/0.2569 @ 71.160</t>
+          <t>VHYD.UK USD 0.4947/ SHR</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -6863,14 +6859,14 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.99</v>
+        <v>0.02</v>
       </c>
       <c r="H230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="n">
-        <v>743719828</v>
+        <v>776315372</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -6878,264 +6874,268 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45726.43231471065</v>
+        <v>45756.64937418982</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Profit of position #1403180445</t>
+          <t>Profit of position #1756767326</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.18</v>
+        <v>-0.25</v>
       </c>
       <c r="H231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="n">
-        <v>743719829</v>
+        <v>622623917</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45726.43231471065</v>
+        <v>45560.50026123843</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.9908/2.9908 @ 6.0270</t>
+          <t>VHYD.UK USD 0.4947/ SHR</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.79</v>
+        <v>0.04</v>
       </c>
       <c r="H232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="n">
-        <v>745059929</v>
+        <v>622625644</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45727.38638332176</v>
+        <v>45560.50026513889</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.1102/0.6706 @ 6.1760</t>
+          <t>VHYD.UK USD 0.4947/ SHR</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.66</v>
+        <v>0.02</v>
       </c>
       <c r="H233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="n">
-        <v>745059930</v>
+        <v>622630052</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45727.38638333333</v>
+        <v>45560.50027641204</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Profit of position #1393301698</t>
+          <t>VHYD.UK USD 0.4947/ SHR</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="n">
-        <v>745059931</v>
+        <v>776325461</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45727.38638333333</v>
+        <v>45756.65185325231</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.1401/0.6706 @ 6.1760</t>
+          <t>Profit of position #1756797155</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.84</v>
+        <v>-10.6</v>
       </c>
       <c r="H235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="n">
-        <v>745059932</v>
+        <v>686256998</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45727.38638335648</v>
+        <v>45653.5243162037</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Profit of position #1403180427</t>
+          <t>VHYD.UK USD 0.4296/ SHR</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="n">
-        <v>561852140</v>
+        <v>686258590</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45453.91334415509</v>
+        <v>45653.52432037037</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0234 @ 427.17</t>
+          <t>VHYD.UK USD 0.4296/ SHR</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-10</v>
+        <v>0.02</v>
       </c>
       <c r="H237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
       <c r="B238" t="n">
-        <v>745059933</v>
+        <v>686260561</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45727.38638335648</v>
+        <v>45653.52432525463</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.4203/0.6706 @ 6.1760</t>
+          <t>VHYD.UK USD 0.4296/ SHR</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.52</v>
+        <v>0.02</v>
       </c>
       <c r="H238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
       <c r="B239" t="n">
-        <v>745059994</v>
+        <v>777443872</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Subaccount Transfer</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45727.3864047338</v>
+        <v>45757.33058888889</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transfer from 50872299 to 50704832</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr"/>
+          <t>TSM.US USD 0.6838/ SHR</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>-52.08</v>
+        <v>0.06</v>
       </c>
       <c r="H239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="n">
-        <v>745059928</v>
+        <v>686268778</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45727.38638332176</v>
+        <v>45653.524345</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Profit of position #1393281432</t>
+          <t>VHYD.UK USD 0.4296/ SHR</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G240" t="n">
@@ -7146,391 +7146,399 @@
     <row r="241">
       <c r="A241" t="inlineStr"/>
       <c r="B241" t="n">
-        <v>584485943</v>
+        <v>777443873</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Subaccount Transfer</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45495.92558700231</v>
+        <v>45757.33058888889</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Transfer from 50704832 to 50872299</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr"/>
+          <t>TSM.US USD WHT 21%</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>50</v>
+        <v>-0.01</v>
       </c>
       <c r="H241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="n">
-        <v>564919536</v>
+        <v>777469070</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>deposit</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45458.11083064815</v>
+        <v>45757.33059533565</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ECOMMPAY card deposit, ECOMMPAY provider transaction id=1718411934936_-192576474,ECOMMPAY merchant reference id=1718411934936_-192576474, id=12074149</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr"/>
+          <t>TSM.US USD 0.6838/ SHR</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="H242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr"/>
       <c r="B243" t="n">
-        <v>565607855</v>
+        <v>686269321</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45460.64602106481</v>
+        <v>45653.52434626158</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.123 @ 1.65</t>
+          <t>VHYD.UK USD 0.4296/ SHR</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>-0.2</v>
+        <v>0.03</v>
       </c>
       <c r="H243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
       <c r="B244" t="n">
-        <v>584584545</v>
+        <v>777469071</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45496.3756843287</v>
+        <v>45757.33059534722</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>OPEN BUY 4/4.1401 @ 5.9810</t>
+          <t>TSM.US USD WHT 21%</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>-23.92</v>
+        <v>-0.01</v>
       </c>
       <c r="H244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
       <c r="B245" t="n">
-        <v>584584380</v>
+        <v>777484070</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45496.37565851852</v>
+        <v>45757.33061372685</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>OPEN BUY 4/4.2503 @ 5.8120</t>
+          <t>TSM.US USD 0.6838/ SHR</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>-23.25</v>
+        <v>0.13</v>
       </c>
       <c r="H245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
       <c r="B246" t="n">
-        <v>584587915</v>
+        <v>777484071</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45496.37755148148</v>
+        <v>45757.33061373843</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.2503/4.2503 @ 5.8110</t>
+          <t>TSM.US USD WHT 21%</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>-1.45</v>
+        <v>-0.03</v>
       </c>
       <c r="H246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
       <c r="B247" t="n">
-        <v>584598125</v>
+        <v>777471608</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45496.37886087963</v>
+        <v>45757.33059850695</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.1401/4.1401 @ 5.9900</t>
+          <t>TSM.US USD 0.6838/ SHR</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>-0.84</v>
+        <v>0.05</v>
       </c>
       <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
       <c r="B248" t="n">
-        <v>584801661</v>
+        <v>777471609</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45496.61777700231</v>
+        <v>45757.33059850695</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0366 @ 67.370</t>
+          <t>TSM.US USD WHT 21%</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-2.47</v>
+        <v>-0.01</v>
       </c>
       <c r="H248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
       <c r="B249" t="n">
-        <v>584801647</v>
+        <v>777512370</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45496.61775549768</v>
+        <v>45757.33064686343</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Profit of position #1393281260</t>
+          <t>TSM.US USD 0.6838/ SHR</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
       <c r="B250" t="n">
-        <v>584801648</v>
+        <v>777512371</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45496.61775549768</v>
+        <v>45757.33064686343</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.5612 @ 5.8100</t>
+          <t>TSM.US USD WHT 21%</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.26</v>
+        <v>-0.01</v>
       </c>
       <c r="H250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="n">
-        <v>584801643</v>
+        <v>777513339</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45496.61775508102</v>
+        <v>45757.33064795139</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Profit of position #1393281432</t>
+          <t>TSM.US USD 0.6838/ SHR</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>-0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
       <c r="B252" t="n">
-        <v>584801644</v>
+        <v>777513340</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45496.61775508102</v>
+        <v>45757.33064795139</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.632 @ 5.9670</t>
+          <t>TSM.US USD WHT 21%</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.78</v>
+        <v>-0.01</v>
       </c>
       <c r="H252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr"/>
       <c r="B253" t="n">
-        <v>565611180</v>
+        <v>777514620</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45460.64765787037</v>
+        <v>45757.33064947917</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>OPEN BUY 1 @ 22.89</t>
+          <t>TSM.US USD 0.6838/ SHR</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>-22.89</v>
+        <v>0.06</v>
       </c>
       <c r="H253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr"/>
       <c r="B254" t="n">
-        <v>585465634</v>
+        <v>777514621</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45497.6542358912</v>
+        <v>45757.33064949074</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.074 @ 67.130</t>
+          <t>TSM.US USD WHT 21%</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>-4.97</v>
+        <v>-0.01</v>
       </c>
       <c r="H254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="n">
-        <v>585465630</v>
+        <v>781556656</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -7538,55 +7546,55 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45497.65423548611</v>
+        <v>45761.66966109954</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Profit of position #1393281260</t>
+          <t>Profit of position #1767688540</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>-0.01</v>
+        <v>-3.77</v>
       </c>
       <c r="H255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
       <c r="B256" t="n">
-        <v>585465631</v>
+        <v>781762912</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45497.65423548611</v>
+        <v>45761.77371296296</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.555/1.555 @ 5.8010</t>
+          <t>Profit of position #1768229183</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.23</v>
+        <v>1.69</v>
       </c>
       <c r="H256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr"/>
       <c r="B257" t="n">
-        <v>585465632</v>
+        <v>782960927</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -7594,223 +7602,223 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45497.65423565972</v>
+        <v>45762.61225932871</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Profit of position #1393281432</t>
+          <t>Profit of position #1769815245</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>-0.01</v>
+        <v>-4.06</v>
       </c>
       <c r="H257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="n">
-        <v>585465633</v>
+        <v>785659568</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45497.65423565972</v>
+        <v>45764.85028835648</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.4344/1.4344 @ 5.9680</t>
+          <t>Profit of position #1666451221</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.6</v>
+        <v>0.25</v>
       </c>
       <c r="H258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr"/>
       <c r="B259" t="n">
-        <v>585515127</v>
+        <v>785659569</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45497.67739417824</v>
+        <v>45764.85028835648</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Profit of position #1393281432</t>
+          <t>CLOSE BUY 0.0528 @ 47.89</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="H259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
       <c r="B260" t="n">
-        <v>585515128</v>
+        <v>785661086</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45497.67739417824</v>
+        <v>45764.85178138889</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>CLOSE BUY 1/1.4344 @ 5.9780</t>
+          <t>Profit of position #1450043624</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5.98</v>
+        <v>-0.42</v>
       </c>
       <c r="H260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr"/>
       <c r="B261" t="n">
-        <v>585515124</v>
+        <v>785661087</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45497.67739378472</v>
+        <v>45764.85178138889</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Profit of position #1393281260</t>
+          <t>CLOSE BUY 0.1 @ 143.22</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>14.74</v>
       </c>
       <c r="H261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
       <c r="B262" t="n">
-        <v>585515125</v>
+        <v>785663603</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45497.67739378472</v>
+        <v>45764.85451521991</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>CLOSE BUY 1/1.555 @ 5.8140</t>
+          <t>OPEN BUY 0.6724 @ 14.87</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>BCS</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>5.81</v>
+        <v>-10</v>
       </c>
       <c r="H262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
       <c r="B263" t="n">
-        <v>589161439</v>
+        <v>785899545</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Sec Fee</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45504.63556375</v>
+        <v>45765.74111733797</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Profit of position #1393281260</t>
+          <t>Sec Fee adj EXC.US 20250417</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
       <c r="B264" t="n">
-        <v>589161440</v>
+        <v>785900668</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Sec Fee</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45504.63556375</v>
+        <v>45765.74277261574</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.4206 @ 5.8260</t>
+          <t>Sec Fee adj KMB.US 20250417</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="H264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr"/>
       <c r="B265" t="n">
-        <v>589161441</v>
+        <v>786345621</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7818,279 +7826,275 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45504.63556420139</v>
+        <v>45768.13306667824</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Profit of position #1393281432</t>
+          <t>Profit of position #1777308201</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="H265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr"/>
       <c r="B266" t="n">
-        <v>565649663</v>
+        <v>787709607</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45460.68557674769</v>
+        <v>45769.49791707176</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0115 @ 1797.13</t>
+          <t>INGR.US USD 0.8000/ SHR</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>INGR</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>-20.67</v>
+        <v>0.15</v>
       </c>
       <c r="H266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr"/>
       <c r="B267" t="n">
-        <v>589161442</v>
+        <v>787709608</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45504.63556420139</v>
+        <v>45769.49791707176</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.4033 @ 5.9800</t>
+          <t>INGR.US USD WHT 30%</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>INGR</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.41</v>
+        <v>-0.05</v>
       </c>
       <c r="H267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
       <c r="B268" t="n">
-        <v>589161443</v>
+        <v>787709619</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>DIVIDENT</t>
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45504.63556431713</v>
+        <v>45769.49791709491</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0362 @ 68.050</t>
+          <t>INGR.US USD 0.8000/ SHR</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>INGR</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>-2.46</v>
+        <v>0.13</v>
       </c>
       <c r="H268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr"/>
       <c r="B269" t="n">
-        <v>589165770</v>
+        <v>787709620</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45504.64158165509</v>
+        <v>45769.49791709491</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0368 @ 68.045</t>
+          <t>INGR.US USD WHT 30%</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>INGR</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-2.5</v>
+        <v>-0.04</v>
       </c>
       <c r="H269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
       <c r="B270" t="n">
-        <v>565713107</v>
+        <v>788242299</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45460.73847523148</v>
+        <v>45769.76084208333</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.123 @ 165.24</t>
+          <t>Profit of position #1781449563</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.2</v>
+        <v>-2.79</v>
       </c>
       <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="n">
-        <v>589166859</v>
+        <v>556516261</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>deposit</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45504.64299375</v>
+        <v>45443.6253102199</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.0733 @ 68.010</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>VHYD.L</t>
-        </is>
-      </c>
+          <t>ECOMMPAY card deposit, ECOMMPAY provider transaction id=1717160381025_178431418,ECOMMPAY merchant reference id=1717160381025_178431418, id=11821773</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>-4.99</v>
+        <v>100</v>
       </c>
       <c r="H271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
       <c r="B272" t="n">
-        <v>589165768</v>
+        <v>557153112</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45504.64158157408</v>
+        <v>45446.37534842593</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Profit of position #1393281432</t>
+          <t>OPEN BUY 0.4139 @ 33.545</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>SHELL.AS</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>-15.15</v>
       </c>
       <c r="H272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="n">
-        <v>589165769</v>
+        <v>557470756</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Stock sale</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45504.64158157408</v>
+        <v>45446.64587177083</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>CLOSE BUY 0.4201 @ 5.9800</t>
+          <t>OPEN BUY 0.1322 @ 155.59</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.51</v>
+        <v>-20.57</v>
       </c>
       <c r="H273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="n">
-        <v>565713108</v>
+        <v>557778020</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>correction</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45460.7384752662</v>
+        <v>45446.89366100694</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Correction: Profit of position #1357581812</t>
+          <t>OPEN BUY 0.0975 @ 205.08</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="H274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
       <c r="B275" t="n">
-        <v>589166872</v>
+        <v>557784122</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -8098,391 +8102,387 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45504.64301291667</v>
+        <v>45446.90411453704</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>OPEN BUY 1/1.2773 @ 5.8360</t>
+          <t>OPEN BUY 1 @ 13.37</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>SMFG</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>-5.84</v>
+        <v>-13.37</v>
       </c>
       <c r="H275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
       <c r="B276" t="n">
-        <v>565713109</v>
+        <v>559538038</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>commission</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45460.7384752662</v>
+        <v>45448.6458737037</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Correction: BUY 0.123 @ 1.65</t>
+          <t>OPEN BUY 0.0171 @ 1184.19</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>-20.25</v>
       </c>
       <c r="H276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="n">
-        <v>565713106</v>
+        <v>560399287</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>close trade</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45460.73847523148</v>
+        <v>45449.86760890047</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Profit of position #1357581812</t>
+          <t>OPEN BUY 0.1488 @ 67.20</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
       <c r="B278" t="n">
-        <v>589166858</v>
+        <v>561654650</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45504.64299368056</v>
+        <v>45453.66360056713</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.4203 @ 5.9890</t>
+          <t>Profit of position #1342063955</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>SHELL.AS</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>-2.52</v>
+        <v>-0.73</v>
       </c>
       <c r="H278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
       <c r="B279" t="n">
-        <v>589166860</v>
+        <v>561654651</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45504.64299381944</v>
+        <v>45453.66360056713</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.2773/1.2773 @ 5.8400</t>
+          <t>CLOSE BUY 0.4139 @ 32.605</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>SHELL.AS</t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>-1.62</v>
+        <v>15.15</v>
       </c>
       <c r="H279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr"/>
       <c r="B280" t="n">
-        <v>565825624</v>
+        <v>561850164</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Stock purchase</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45460.88529053241</v>
+        <v>45453.90972417824</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>OPEN BUY 0.1205 @ 165.93</t>
+          <t>Profit of position #1350877137</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>US30</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>-19.99</v>
+        <v>-1.55</v>
       </c>
       <c r="H280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
       <c r="B281" t="n">
-        <v>622623348</v>
+        <v>561852140</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45560.50025998842</v>
+        <v>45453.91334415509</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4947/ SHR</t>
+          <t>OPEN BUY 0.0234 @ 427.17</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.04</v>
+        <v>-10</v>
       </c>
       <c r="H281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="n">
-        <v>622623355</v>
+        <v>564919536</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>deposit</t>
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45560.50026001158</v>
+        <v>45458.11083064815</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4947/ SHR</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>VHYD.L</t>
-        </is>
-      </c>
+          <t>ECOMMPAY card deposit, ECOMMPAY provider transaction id=1718411934936_-192576474,ECOMMPAY merchant reference id=1718411934936_-192576474, id=12074149</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>0.02</v>
+        <v>50</v>
       </c>
       <c r="H282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
       <c r="B283" t="n">
-        <v>622623917</v>
+        <v>565607855</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45560.50026123843</v>
+        <v>45460.64602106481</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4947/ SHR</t>
+          <t>OPEN BUY 0.123 @ 1.65</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.04</v>
+        <v>-0.2</v>
       </c>
       <c r="H283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
       <c r="B284" t="n">
-        <v>622625644</v>
+        <v>565611180</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45560.50026513889</v>
+        <v>45460.64765787037</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4947/ SHR</t>
+          <t>OPEN BUY 1 @ 22.89</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>LEVI</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.02</v>
+        <v>-22.89</v>
       </c>
       <c r="H284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="n">
-        <v>622630052</v>
+        <v>565649663</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45560.50027641204</v>
+        <v>45460.68557674769</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4947/ SHR</t>
+          <t>OPEN BUY 0.0115 @ 1797.13</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.02</v>
+        <v>-20.67</v>
       </c>
       <c r="H285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
       <c r="B286" t="n">
-        <v>686256998</v>
+        <v>565713107</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock sale</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45653.5243162037</v>
+        <v>45460.73847523148</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4296/ SHR</t>
+          <t>CLOSE BUY 0.123 @ 165.24</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="H286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
       <c r="B287" t="n">
-        <v>686258590</v>
+        <v>565713108</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>correction</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45653.52432037037</v>
+        <v>45460.7384752662</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4296/ SHR</t>
+          <t>Correction: Profit of position #1357581812</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
       <c r="B288" t="n">
-        <v>686260561</v>
+        <v>565713109</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>commission</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45653.52432525463</v>
+        <v>45460.7384752662</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4296/ SHR</t>
+          <t>Correction: BUY 0.123 @ 1.65</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr"/>
       <c r="B289" t="n">
-        <v>565825453</v>
+        <v>565713106</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -8490,76 +8490,76 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45460.88504170139</v>
+        <v>45460.73847523148</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Profit of position #1343394966</t>
+          <t>Profit of position #1357581812</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>SMFG</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="G289" t="n">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
       <c r="B290" t="n">
-        <v>686268778</v>
+        <v>565825624</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>Stock purchase</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45653.524345</v>
+        <v>45460.88529053241</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4296/ SHR</t>
+          <t>OPEN BUY 0.1205 @ 165.93</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.02</v>
+        <v>-19.99</v>
       </c>
       <c r="H290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
       <c r="B291" t="n">
-        <v>686269321</v>
+        <v>565825453</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>DIVIDENT</t>
+          <t>close trade</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45653.52434626158</v>
+        <v>45460.88504170139</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>VHYD.UK USD 0.4296/ SHR</t>
+          <t>Profit of position #1343394966</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>SMFG</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.03</v>
+        <v>-0.75</v>
       </c>
       <c r="H291" t="inlineStr"/>
     </row>
